--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\clickbait-ml\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A8C8F7-6AF2-4214-8679-47F6D1B6C25B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FAA1EEA-98DA-450E-83E1-CE470F04A46A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="12223" windowHeight="8820" xr2:uid="{260091D3-AD19-4D85-8BEB-60A2021E3C27}"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="12223" windowHeight="8820" xr2:uid="{260091D3-AD19-4D85-8BEB-60A2021E3C27}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,18 +25,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>L</t>
   </si>
   <si>
-    <t>Test Accuracy</t>
+    <t>Training Time (sec)</t>
   </si>
   <si>
-    <t>Test Loss</t>
+    <t>Accuracy</t>
   </si>
   <si>
-    <t>Training Time (sec)</t>
+    <t>Loss</t>
+  </si>
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>Recall</t>
   </si>
 </sst>
 </file>
@@ -176,7 +182,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Test Accuracy</c:v>
+                  <c:v>Accuracy</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1134,16 +1140,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>470806</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>108857</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>280306</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>174171</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>157842</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>500743</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1468,34 +1474,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66083473-8CDC-43E9-9BE6-0AC2C702B7C9}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+      <selection activeCell="F21" sqref="A1:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="3.921875" customWidth="1"/>
-    <col min="2" max="2" width="12.3828125" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="3" width="12.07421875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1508,8 +1520,14 @@
       <c r="D2">
         <v>0.46899999999999997</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E2">
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="F2">
+        <v>0.51600000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1522,8 +1540,14 @@
       <c r="D3">
         <v>0.22800000000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E3">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="F3">
+        <v>0.90200000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1536,8 +1560,14 @@
       <c r="D4">
         <v>0.13700000000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E4">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="F4">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1550,8 +1580,14 @@
       <c r="D5">
         <v>9.1999999999999998E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E5">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="F5">
+        <v>0.97299999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1564,8 +1600,14 @@
       <c r="D6">
         <v>8.4000000000000005E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E6">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="F6">
+        <v>0.97399999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1578,8 +1620,14 @@
       <c r="D7">
         <v>7.0999999999999994E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E7">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="F7">
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1592,8 +1640,14 @@
       <c r="D8">
         <v>6.8000000000000005E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E8">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="F8">
+        <v>0.97799999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1606,8 +1660,14 @@
       <c r="D9">
         <v>6.5000000000000002E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E9">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="F9">
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1620,8 +1680,14 @@
       <c r="D10">
         <v>6.0999999999999999E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E10">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="F10">
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1634,8 +1700,14 @@
       <c r="D11">
         <v>5.7000000000000002E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E11">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="F11">
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1648,8 +1720,14 @@
       <c r="D12">
         <v>5.8000000000000003E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E12">
+        <v>0.98</v>
+      </c>
+      <c r="F12">
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1662,8 +1740,14 @@
       <c r="D13">
         <v>5.3999999999999999E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E13">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="F13">
+        <v>0.98299999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1676,8 +1760,14 @@
       <c r="D14">
         <v>5.3999999999999999E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E14">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="F14">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1690,8 +1780,14 @@
       <c r="D15">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E15">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="F15">
+        <v>0.98399999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1704,8 +1800,14 @@
       <c r="D16">
         <v>5.3999999999999999E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E16">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="F16">
+        <v>0.97699999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1718,8 +1820,14 @@
       <c r="D17">
         <v>5.1999999999999998E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E17">
+        <v>0.98</v>
+      </c>
+      <c r="F17">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1732,8 +1840,14 @@
       <c r="D18">
         <v>5.6000000000000001E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E18">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="F18">
+        <v>0.97699999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1746,8 +1860,14 @@
       <c r="D19">
         <v>5.1999999999999998E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E19">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="F19">
+        <v>0.97799999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1760,8 +1880,14 @@
       <c r="D20">
         <v>5.3999999999999999E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E20">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="F20">
+        <v>0.97699999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1773,6 +1899,12 @@
       </c>
       <c r="D21">
         <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="E21">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="F21">
+        <v>0.97699999999999998</v>
       </c>
     </row>
   </sheetData>
